--- a/Data/g11.8a.xlsx
+++ b/Data/g11.8a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C9184-2D77-418C-823C-0E9B54CE06C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D29987-7D2E-4E91-B4AC-36FA7A580F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7410C00A-A443-4CA0-AB47-CCF258725657}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>RR</t>
   </si>
   <si>
@@ -54,23 +51,42 @@
     <t>TO</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>PA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,15 +105,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_g11.3 (2)" xfId="2" xr:uid="{AC7FD862-4D39-4ACB-B106-C850F6CCC42D}"/>
+    <cellStyle name="Normal_g11.3_1" xfId="1" xr:uid="{27407D81-8233-4F6D-B30F-8079624F2024}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,7 +467,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,102 +477,104 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>-162.8721629299859</v>
-      </c>
+      <c r="B2" s="2">
+        <v>-0.98946394060239751</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>-40.950499625464111</v>
-      </c>
+      <c r="B3" s="2">
+        <v>-0.92350451060959049</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>-67.281377158038254</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>-1.1528940036622264</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.22005518309996197</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.18400518517543704</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.14318086433921523</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" s="2">
+        <v>-2.6650710527051397E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>-39.768756129471718</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>-37.748151459006557</v>
-      </c>
-      <c r="C6">
+      <c r="B9" s="2">
+        <v>6.4945193163240517E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>19.143864753585774</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>19.552764159990545</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>36.685048799689383</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>61.342939536486831</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>0.19726082681291643</v>
+      </c>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Data/g11.8a.xlsx
+++ b/Data/g11.8a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D29987-7D2E-4E91-B4AC-36FA7A580F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B08B08-EB3F-4516-A1BF-B493381241A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7410C00A-A443-4CA0-AB47-CCF258725657}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Região</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -467,17 +470,21 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2023</v>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>

--- a/Data/g11.8a.xlsx
+++ b/Data/g11.8a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B08B08-EB3F-4516-A1BF-B493381241A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7189C3-E2F0-4792-903A-FE3581C8074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7410C00A-A443-4CA0-AB47-CCF258725657}"/>
   </bookViews>
@@ -68,8 +68,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -145,12 +145,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,9 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E399695-A50C-4036-BA01-CF80C30E36E0}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -494,94 +492,94 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>-0.98946394060239751</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="5">
+        <v>-98.946394060239754</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>-0.92350451060959049</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="5">
+        <v>-92.350451060959045</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>-1.1528940036622264</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="5">
+        <v>-115.28940036622264</v>
+      </c>
+      <c r="C4" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>-0.22005518309996197</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="5">
+        <v>-22.005518309996198</v>
+      </c>
+      <c r="C5" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>-0.18400518517543704</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="5">
+        <v>-18.400518517543706</v>
+      </c>
+      <c r="C6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>-0.14318086433921523</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="5">
+        <v>-14.318086433921524</v>
+      </c>
+      <c r="C7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>-2.6650710527051397E-2</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="5">
+        <v>-2.6650710527051396</v>
+      </c>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>6.4945193163240517E-2</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="5">
+        <v>6.4945193163240518</v>
+      </c>
+      <c r="C9" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.19726082681291643</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="5">
+        <v>19.726082681291643</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
     </row>
